--- a/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS JavaScript VII.xlsx
+++ b/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS JavaScript VII.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Node.js npm install " sheetId="4" r:id="rId3"/>
     <sheet name="Example test " sheetId="2" r:id="rId4"/>
     <sheet name="Mocha JS" sheetId="3" r:id="rId5"/>
+    <sheet name="CHai Overview" sheetId="6" r:id="rId6"/>
+    <sheet name="before and after" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,9 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -383,11 +388,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3731878" cy="781240"/>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4359729" cy="828175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
@@ -401,8 +406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648450" y="4491990"/>
-          <a:ext cx="3731878" cy="781240"/>
+          <a:off x="6675663" y="4408714"/>
+          <a:ext cx="4359729" cy="828175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -435,7 +440,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -448,7 +453,7 @@
             <a:t>Mocha</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10504,6 +10509,3834 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>245745</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12496178" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5A9691-F262-41D1-BE1F-6BEE12BFE2B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="855345" y="704850"/>
+          <a:ext cx="12496178" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Mocha Testing Framework ... mochajs.org ...  a testing framework ... main documentation: https://mochajs.org - That is your reading</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39770661-5509-4CE1-8FE0-D97318C33714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188720" y="1287280"/>
+          <a:ext cx="9616440" cy="3549073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9392508" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AF6434-9057-40B3-BBBB-4D53E85B9136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906780" y="5410200"/>
+          <a:ext cx="9392508" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Node coes with a few assertions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> built in but its very basic. . . Search for node assert ... can find documentation </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46933</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CBF256-4AF4-4A07-99A6-D59ACE43135A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="5905500"/>
+          <a:ext cx="5533333" cy="2179058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D675C151-07D7-4541-A3EF-5D66C6F8608B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745480" y="5669280"/>
+          <a:ext cx="2537460" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456914</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>102834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBDCA26-F0B8-4C78-AA15-BB18A60379D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="2285714" cy="293334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4037837" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1B87B2-3216-4E08-9E45-6BE9F533C1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297180" y="7139940"/>
+          <a:ext cx="4037837" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Open up VSC ... install</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> mocha and make global</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533257</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4249A52-CB88-4821-9D5E-80D5A99EAC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1752457" y="7391400"/>
+          <a:ext cx="983123" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258609</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>49223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD2C5E1-BC80-433D-B738-647BE2249BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="8343900"/>
+          <a:ext cx="3771429" cy="2563823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3974806" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620CDFED-89E1-4B4A-B518-041A3FF7D0D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="7947660"/>
+          <a:ext cx="3974806" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Create a new project ... create a folder called </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>'tests' make a file called test.js</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190357</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1C4944-24D1-48E6-94B9-4226857D62AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3238357" y="8511540"/>
+          <a:ext cx="983123" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142248</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB8DFC3-CF7D-4D2A-AF69-BDB1592F4E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="11620500"/>
+          <a:ext cx="5019048" cy="2028581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3082832" cy="1595052"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BC831B-D4B6-4C9D-9711-1BEE7E7AA07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="11285220"/>
+          <a:ext cx="3082832" cy="1595052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>use 1 each foreach function to test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>... tests go inside 'it' blocks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>bdd .. it ('should add 2 numbers')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>an it for each singe test</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266557</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4D8E64-C520-4122-8B87-0306201F3F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5752957" y="11628120"/>
+          <a:ext cx="983123" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209067</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>39794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1610BF-BD2B-4B28-A571-C531CE867980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="10668000"/>
+          <a:ext cx="3866667" cy="1754294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502921</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E7C1AD-74CF-4E73-A85E-B3F5CA353746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8427721" y="11506200"/>
+          <a:ext cx="2369819" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>294857</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FB4F3E-6E0A-47E1-8030-EA8286F1A641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="12954000"/>
+          <a:ext cx="3342857" cy="2047629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3082832" cy="1595052"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7759EA29-0B86-499E-B456-08B18D6EED97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6697980" y="13426440"/>
+          <a:ext cx="3082832" cy="1595052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>use 1 each foreach function to test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>... tests go inside 'it' blocks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>bdd .. it ('should add 2 numbers')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>an it for each singe test</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>256228</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>10766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EFE78E-2936-49A7-A049-69D37CF5E682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="15811500"/>
+          <a:ext cx="7571428" cy="5535266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3184398" cy="1043619"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7240845D-6629-4A7E-AEFD-D7E9F6AACB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="15262860"/>
+          <a:ext cx="3184398" cy="1043619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>Can run by going to dir and </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>mocha test.js</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>see it fails .. note the it test name</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDED169-4B5B-4229-B1A2-673EAE39B87D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2750820" y="16238220"/>
+          <a:ext cx="1104900" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>197596</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>173261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E2B7E3-C017-4C22-8FC2-AC613D62C1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2103120" y="22631400"/>
+          <a:ext cx="4190476" cy="782861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2616486" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2643AC-ED76-4034-B2E5-12BEE0199C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="21671280"/>
+          <a:ext cx="2616486" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Change the it and it will work</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>162831</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C5B7F3-E544-4CD3-907F-EAF2A777A945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="960120" y="22105620"/>
+          <a:ext cx="1143000" cy="917211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>484995</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>35710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EAEB1C-64C6-41A9-83BF-345766EF872E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="22288500"/>
+          <a:ext cx="6238095" cy="4036210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A06556D-796A-4E18-BF33-FB1711A68E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2872740" y="21937980"/>
+          <a:ext cx="4114800" cy="1234440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142019</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>95010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A0BEB5-EBC1-4526-B351-F83EF6653B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="26860500"/>
+          <a:ext cx="6847619" cy="2000010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3708964" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF035228-E9BC-4ADE-8BBC-9AE88508075A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2827020" y="26205180"/>
+          <a:ext cx="3708964" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Add another test ... this compares opjects </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C952F6-C5FB-4627-A2B7-A0DD10E94646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="26631900"/>
+          <a:ext cx="1729740" cy="1584960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294552</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>26415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1472F20C-9DCB-41DC-8156-6FDB1B03FA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="29337000"/>
+          <a:ext cx="5780952" cy="2121915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1423980" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98620FA0-944B-4A26-A692-AC24D0F2D925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="28841700"/>
+          <a:ext cx="1423980" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Now both pass</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA441A4-4F86-4825-8CAD-AF4AA5F4C272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2636520" y="29268420"/>
+          <a:ext cx="1729740" cy="1577340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561219</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>37867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD911D55-1FC5-457C-B014-FBE6FC74FEBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="33147000"/>
+          <a:ext cx="6047619" cy="1942867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3505200" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781F4B36-488F-4453-925F-CDFBDC69A58B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="32042100"/>
+          <a:ext cx="3505200" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This is a pending test ... no check mark ... this is for a function not ready to test</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8028847C-EE45-4118-8D91-C11F95F2FC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2217420" y="32468820"/>
+          <a:ext cx="1676400" cy="2263140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1904</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>503844</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6B04D-23AC-4202-994F-0C59E715222A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6707504" y="8736704"/>
+          <a:ext cx="5988340" cy="1868143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219699" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3785BC8D-2E50-41AC-A1AA-454C587CF5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11250930" y="15752445"/>
+          <a:ext cx="4219699" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a JavaScript test framework running on Node. js and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> browser. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> allows asynchronous testing, test coverage reports, and use of any assertion library. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a BDD / TDD assertion library for NodeJS and the browser that can be delightfully paired with any javascript testing framework</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7888730" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E141078C-7D64-46A5-A675-DD9BBEB0325E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="1163955"/>
+          <a:ext cx="7888730" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a JavaScript test framework running on Node. js and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> browser.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> allows asynchronous testing, test coverage reports, and use of any assertion library. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a BDD / TDD assertion library for NodeJS and the browser that can be delightfully </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>paired with any javascript testing framework</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>10201</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>132320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E17B83C-B319-4D81-AF2D-1A83144396D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9688830" y="28613100"/>
+          <a:ext cx="9828571" cy="8666720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>102565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>60389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3694A52-1E11-4E1A-88AC-65DA4707A756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="35726065"/>
+          <a:ext cx="8953500" cy="3577324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>34249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>558627</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E874AEE-B75E-49D8-847D-BF1B189B520A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13839824" y="8797249"/>
+          <a:ext cx="10493203" cy="2289551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>531976</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>56706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3193026-5B75-4E5B-9096-557618160D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="40128825"/>
+          <a:ext cx="11390476" cy="3742881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>408877</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>66398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="25469850"/>
+          <a:ext cx="5580952" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>580201</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>123436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="26917650"/>
+          <a:ext cx="6590476" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2254463" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="2876550"/>
+          <a:ext cx="2254463" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Recommended reading </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://www.chaijs.com/api/assert/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11365099" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48D2C22-E2C7-48BF-935E-088BDFCE1A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="514350"/>
+          <a:ext cx="11365099" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Use before and afte</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>r for code to run before/after tests (set up and teardown) ... for example, a common object built or common variable or DB connection</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>479008</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49DF506-0659-4B06-A6E7-73EE4B62A53B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1203960" y="1082040"/>
+          <a:ext cx="8419048" cy="6817177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3411960" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E214A1-1323-4873-B133-E49B47499F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6225540" y="1996440"/>
+          <a:ext cx="3411960" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> a before and after function to be tested</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E656F1A5-3C83-4F3F-820F-EB932B44F5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6187440" y="2331720"/>
+          <a:ext cx="1562100" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F16AF0-03DC-4841-862D-8DCECCB7EEF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6088380" y="2339340"/>
+          <a:ext cx="1676400" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>303828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60780A2-E77F-400A-9AAF-15C95EFCC4AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="1889760"/>
+          <a:ext cx="7771428" cy="3129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2403158" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E15A561-979B-4A8F-ACBE-63D3DEA28CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="3322320"/>
+          <a:ext cx="2403158" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>You get a line</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> before and after</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277178</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7815EFEA-9B5D-497D-ABB1-D0E51732C7BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9421178" y="3093720"/>
+          <a:ext cx="1079182" cy="391968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277178</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D35423-6B76-4E78-A8E1-46B09E78B6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9421178" y="3485688"/>
+          <a:ext cx="1048702" cy="385272"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>216301</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE69F9F6-C961-4943-A9D0-A56B68F03413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10332720" y="8740140"/>
+          <a:ext cx="6952381" cy="4024783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>427696</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>115679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74545128-C5D9-486C-8DF2-3C1D30747AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="8639175"/>
+          <a:ext cx="7428571" cy="4430504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4103046" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4D92AF-73C9-429B-85F4-7C40AE45B1D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="9427845"/>
+          <a:ext cx="4103046" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> a beforeeach and aftereach function to be tested</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C0B608-6C14-495B-861C-8114FC3D0900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5953125" y="9768840"/>
+          <a:ext cx="1562100" cy="544830"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2BA3DC-643D-4E60-8294-DDD52D051DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5850255" y="9780270"/>
+          <a:ext cx="1676400" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3304944" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31BD3C9-56C0-487B-B96E-4F217703BB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6779895" y="10763250"/>
+          <a:ext cx="3304944" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Runs before EACH function and after</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> EACH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>331239</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958053E9-BB77-483C-A9D7-630290F74590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10084839" y="10572750"/>
+          <a:ext cx="1116561" cy="351963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>331239</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285DF35F-AB23-4A5F-88FC-07C49773A29B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10084839" y="10924713"/>
+          <a:ext cx="1173711" cy="267162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189571</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>121394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52F83FD-9011-4199-B648-72DE11A5EA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16076295"/>
+          <a:ext cx="7428571" cy="4428599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0413A98E-C49B-4994-8577-69ACA0C737AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7734300" y="10721340"/>
+          <a:ext cx="3516630" cy="118110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B408BF-F1E5-44F7-AAD6-8EEDBFDD0E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7734300" y="10067925"/>
+          <a:ext cx="3400425" cy="767715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10808,8 +14641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A76"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA203" sqref="AA203"/>
+    <sheetView topLeftCell="A205" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,7 +14659,7 @@
   <dimension ref="E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10859,8 +14692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="V77" sqref="V76:V77"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10874,7 +14707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A230" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
@@ -10890,4 +14723,40 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="T143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>